--- a/Excel Files -Not Dataset Inclusive/State - Total Pounds Collected.xlsx
+++ b/Excel Files -Not Dataset Inclusive/State - Total Pounds Collected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aishwarya\Documents\GitHub\OceanCleanup\Excel Files -Not Dataset Inclusive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC60F705-ABDD-49C0-B58E-B4560CCBC4D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162E4FA4-D44C-4722-8DDC-B36BDB746E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{329D9F71-BEBD-4219-ABE2-94A19534A5E0}"/>
   </bookViews>
@@ -558,11 +558,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16362AFA-7BE9-45DA-8A2A-28017574959C}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
